--- a/qto_results.xlsx
+++ b/qto_results.xlsx
@@ -8,9 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Standard Metrics" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="windows_by_room" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="doors_by_room" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="wall_coverings_by_room" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,7 +527,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>206.04</v>
+        <v>156.09</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -544,11 +541,11 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Gross floor area</t>
+          <t>Calculates the gross floor area based on spaces marked as internal</t>
         </is>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45747.27558224477</v>
+        <v>45747.28323347997</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -580,11 +577,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>interior_floor_area</t>
+          <t>exterior_windows_area</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>156.09</v>
+        <v>6.11</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -598,11 +595,11 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Interior floor area</t>
+          <t>Calculates the total area of exterior windows</t>
         </is>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45747.27558225846</v>
+        <v>45747.28323348405</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -634,496 +631,1078 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>exterior_wall_area</t>
+          <t>interior_walls_area</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>94.47</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Calculates the net side area of interior walls</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>45747.28323352992</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Mustermodell V1_abstractBIM.ifc</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mustermodell V1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>21MDAeADb9799Web$9RSGv</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>coverings_exterior_area</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>363.75</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Calculates the total area of exterior coverings</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>45747.28323368025</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mustermodell V1_abstractBIM.ifc</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mustermodell V1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21MDAeADb9799Web$9RSGv</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>coverings_interior_area</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>755.34</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Calculates the total area of interior coverings</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>45747.28323381548</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mustermodell V1_abstractBIM.ifc</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mustermodell V1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>21MDAeADb9799Web$9RSGv</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>slab_balcony_area</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>32.85</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calculates the total area of balcony slabs.
+In the abstractBIM IFC standard, balcony slabs are defined as slabs with exterior space above.
+Note: Cantilevered roofs may also be included as they meet the same criteria.
+</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>45747.28323381809</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mustermodell V1_abstractBIM.ifc</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mustermodell V1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21MDAeADb9799Web$9RSGv</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>slab_interior_area</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>137.55</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Calculates the total area of interior slabs</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>45747.28323382201</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mustermodell V1_abstractBIM.ifc</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mustermodell V1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>21MDAeADb9799Web$9RSGv</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>roof_area</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>73.79000000000001</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Calculates the total area of roof slabs</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>45747.28323382448</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mustermodell V1_abstractBIM.ifc</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mustermodell V1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>21MDAeADb9799Web$9RSGv</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>base_slab_area</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>73.79000000000001</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calculates the total area of base slabs.
+In the abstractBIM IFC standard, base slabs are defined as:
+- Base slabs: Slabs with an internal space above
+- Cantilevered Slabs: Also included as they meet the same criteria
+TODO: Add filter for spaces in contact with ground (manual data enrichment)
+</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>45747.28323382684</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mustermodell V1_abstractBIM.ifc</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mustermodell V1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>21MDAeADb9799Web$9RSGv</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>windows_exterior_area</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Calculates the total area of exterior windows</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>45747.28323383017</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mustermodell V1_abstractBIM.ifc</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mustermodell V1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>21MDAeADb9799Web$9RSGv</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>windows_interior_area</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Calculates the total area of interior windows</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>45747.28323383194</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mustermodell V1_abstractBIM.ifc</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mustermodell V1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>21MDAeADb9799Web$9RSGv</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>doors_exterior_area</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Calculates the total area of exterior doors</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>45747.28323383362</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Mustermodell V1_abstractBIM.ifc</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mustermodell V1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>21MDAeADb9799Web$9RSGv</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>doors_interior_area</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Calculates the total area of interior doors</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>45747.28323383456</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mustermodell V1_abstractBIM.ifc</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mustermodell V1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>21MDAeADb9799Web$9RSGv</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>walls_exterior_net_side_area</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>292.41</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>area</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Exterior wall area</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>45747.2755823246</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>filename</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>project_name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>project_number</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>project_phase</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>project_status</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>021YoEi1HD9eSoSLT0LMfy</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3.0551</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Mustermodell V1_abstractBIM.ifc</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Mustermodell V1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>21MDAeADb9799Web$9RSGv</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2ky6TqzMD7gwJbHxE3Kcxy</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3.055100000000001</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Mustermodell V1_abstractBIM.ifc</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Mustermodell V1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>21MDAeADb9799Web$9RSGv</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>filename</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>project_name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>project_number</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>project_phase</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>project_status</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2lk8ATQRL3YhM35IFLYXiz</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Mustermodell V1_abstractBIM.ifc</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Mustermodell V1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>21MDAeADb9799Web$9RSGv</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>filename</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>project_name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>project_number</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>project_phase</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>project_status</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>SGR</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>89.19</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Mustermodell V1_abstractBIM.ifc</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Mustermodell V1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>21MDAeADb9799Web$9RSGv</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>GSA</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>128.1469</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Mustermodell V1_abstractBIM.ifc</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Mustermodell V1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>21MDAeADb9799Web$9RSGv</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>TRH</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>100.0458</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Mustermodell V1_abstractBIM.ifc</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Mustermodell V1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>21MDAeADb9799Web$9RSGv</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>LUF</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>32.205</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Mustermodell V1_abstractBIM.ifc</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Mustermodell V1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>21MDAeADb9799Web$9RSGv</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>WCH</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>38.94</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Mustermodell V1_abstractBIM.ifc</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Mustermodell V1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>21MDAeADb9799Web$9RSGv</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>WCD</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>38.94</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Mustermodell V1_abstractBIM.ifc</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Mustermodell V1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>21MDAeADb9799Web$9RSGv</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>RRG</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>38.94</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Mustermodell V1_abstractBIM.ifc</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Mustermodell V1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>21MDAeADb9799Web$9RSGv</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Calculates the total net side area of exterior walls (excluding openings)</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>45747.28323388672</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mustermodell V1_abstractBIM.ifc</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mustermodell V1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>21MDAeADb9799Web$9RSGv</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>walls_interior_net_side_area</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>94.47</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Calculates the total net side area of interior walls (excluding openings)</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>45747.28323392475</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mustermodell V1_abstractBIM.ifc</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mustermodell V1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>21MDAeADb9799Web$9RSGv</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>walls_interior_structural_area</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calculates the total area of interior structural walls.
+The default values are based on the abstractBIM IFC.
+Assumption is that walls thicker than 15cm are structural walls.
+This is a simplification and may not be 100% accurate.
+</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>45747.28323398303</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mustermodell V1_abstractBIM.ifc</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Mustermodell V1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>21MDAeADb9799Web$9RSGv</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>walls_internal_non_load_bearing_area</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calculates the total area of internal non-load bearing walls
+The default values are based on the abstractBIM IFC.
+Assumption is that walls thinner than 15cm are non-load bearing walls.
+This is a simplification and may not be 100% accurate.
+</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>45747.28323404148</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Mustermodell V1_abstractBIM.ifc</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mustermodell V1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>21MDAeADb9799Web$9RSGv</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>space_interior_floor_area</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>156.09</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Calculates the total floor area of interior spaces</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>45747.28323405238</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Mustermodell V1_abstractBIM.ifc</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Mustermodell V1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>21MDAeADb9799Web$9RSGv</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>space_interior_volume</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>512.46</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>m³</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Calculates the total volume of interior spaces</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>45747.28323406084</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Mustermodell V1_abstractBIM.ifc</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Mustermodell V1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>21MDAeADb9799Web$9RSGv</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>space_exterior_area</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>321.67</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>area</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Calculates the total area of exterior spaces</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>45747.28323406525</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Mustermodell V1_abstractBIM.ifc</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mustermodell V1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>21MDAeADb9799Web$9RSGv</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>gross_floor_volume</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>512.46</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>m³</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calculates the gross floor volume.
+In the abstractBIM IFC standard, Gross Volume is calculated based on
+the volume enclosed by the exterior face of exterior walls, including all interior spaces.
+</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>45747.2832340735</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Mustermodell V1_abstractBIM.ifc</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Mustermodell V1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>21MDAeADb9799Web$9RSGv</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>net_room_volume</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>512.46</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>m³</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Calculates the net volume of all rooms, excluding technical spaces and voids</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>45747.2832340821</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>success</t>
         </is>
       </c>
     </row>
